--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31812.11705212995</v>
+        <v>6330611.29337386</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31812.11705212995</v>
+        <v>6330611.29337386</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95287.71649952185</v>
+        <v>9192972.460753245</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95287.71649952185</v>
+        <v>9192972.460753245</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495444345.761267</v>
+        <v>55277415.91567013</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15183.19604490974</v>
+        <v>1434950.081793531</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28643.54157156814</v>
+        <v>2575501.899703571</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42091.30949134809</v>
+        <v>3716053.717613613</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56199.71773637845</v>
+        <v>4855186.63026298</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70308.12598140877</v>
+        <v>5994319.542912349</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84416.53422643909</v>
+        <v>7133452.455561716</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98524.94247146863</v>
+        <v>8272585.368211168</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112633.3507164982</v>
+        <v>9411718.28086062</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127537.1490868275</v>
+        <v>10144581.24865446</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142861.4565480659</v>
+        <v>10961125.52553921</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>158185.7640093043</v>
+        <v>11777669.80242396</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>173510.0714705427</v>
+        <v>12594214.07930871</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>188834.378931781</v>
+        <v>13410758.35619347</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>204158.6863930194</v>
+        <v>14227302.63307823</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>219482.9938542579</v>
+        <v>15043846.909963</v>
       </c>
     </row>
   </sheetData>
@@ -27037,22 +27037,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207.0000000000142</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>5.488301492878236e-11</v>
@@ -27064,7 +27064,7 @@
         <v>146.9999999999475</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
